--- a/comratio/cratio.xlsx
+++ b/comratio/cratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.3535533905932738</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.792020352414617e-17</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.534299486433364e-17</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.08838834764831854</v>
+        <v>0.7071067811865477</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.035349118238052e-33</v>
+        <v>0.7071067811865477</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2500000000000001</v>
+        <v>0.7071067811865477</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.76210391269799e-18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.074904731855984e-17</v>
+        <v>0.7071067811865477</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.925231146709438e-17</v>
+        <v>0.7071067811865477</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2500000000000002</v>
+        <v>0.7071067811865477</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.176776695296637</v>
+        <v>0.7071067811865476</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.176776695296637</v>
+        <v>0.7071067811865476</v>
       </c>
     </row>
     <row r="21">
@@ -595,95 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2500000000000002</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.542815788417209e-17</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.555813537050364e-18</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-2.537452365927993e-17</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.3750000000000002</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.3750000000000002</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.3750000000000002</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.3750000000000002</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2.340199563321044e-17</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>5.510262730097832e-17</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>5.551115123125783e-17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1250000000000002</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/comratio/cratio.xlsx
+++ b/comratio/cratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.9964076379087168</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.1347439567526796</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3535533905932738</v>
+        <v>-0.06992175483796277</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3535533905932738</v>
+        <v>-0.02276005605523023</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.01107156093898556</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5000000000000001</v>
+        <v>-0.005559766072727994</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.008640445476726195</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7071067811865477</v>
+        <v>-0.00761213295442044</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7071067811865477</v>
+        <v>0.01786496024038288</v>
       </c>
     </row>
     <row r="11">
@@ -515,87 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7071067811865477</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7071067811865477</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7071067811865477</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.7071067811865477</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7071067811865476</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7071067811865476</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.03658690719091999</v>
       </c>
     </row>
   </sheetData>
